--- a/plots/basic_stats/two_var_stats/allmus_subject_matter_vs_governance_simpl.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_subject_matter_vs_governance_simpl.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,17 +387,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Archaeology/Greek and Egyptian</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -406,17 +406,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Archaeology/Medieval</t>
+          <t>Archaeology-Greek_and_Egyptian</t>
         </is>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>5</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -425,17 +425,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Archaeology/Mixed</t>
+          <t>Archaeology-Medieval</t>
         </is>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -444,17 +444,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Archaeology/Other</t>
+          <t>Archaeology-Mixed</t>
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -463,93 +463,93 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Archaeology/Prehistory</t>
+          <t>Archaeology-Other</t>
         </is>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Archaeology/Roman</t>
+          <t>Archaeology-Prehistory</t>
         </is>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/Arts/Ceramics</t>
+          <t>Archaeology-Roman</t>
         </is>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Arts/Costume and textiles</t>
+          <t>Arts-Ceramics</t>
         </is>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/Arts/Crafts</t>
+          <t>Arts-Costume_and_textiles</t>
         </is>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -558,17 +558,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/Arts/Design</t>
+          <t>Arts-Crafts</t>
         </is>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -577,93 +577,93 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/Arts/Fine and decorative arts</t>
+          <t>Arts-Design</t>
         </is>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/Arts/Glass</t>
+          <t>Arts-Fine_and_decorative_arts</t>
         </is>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/Arts/Literature</t>
+          <t>Arts-Glass</t>
         </is>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/Arts/Music</t>
+          <t>Arts-Literature</t>
         </is>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/Arts/Other</t>
+          <t>Arts-Music</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -672,36 +672,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/Arts/Photography</t>
+          <t>Arts-Other</t>
         </is>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/Belief and identity/Church treasuries</t>
+          <t>Arts-Photography</t>
         </is>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -710,33 +710,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/Belief and identity/Ethnic group</t>
+          <t>Belief_and_identity</t>
         </is>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/Belief and identity/Freemasons</t>
+          <t>Belief_and_identity-Church_treasuries</t>
         </is>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -748,33 +748,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/Belief and identity/Other</t>
+          <t>Belief_and_identity-Ethnic_group</t>
         </is>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religion</t>
+          <t>Belief_and_identity-Freemasons</t>
         </is>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -786,147 +786,147 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religious buildings</t>
+          <t>Belief_and_identity-Other</t>
         </is>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/Buildings/Civic</t>
+          <t>Belief_and_identity-Religion</t>
         </is>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Large houses</t>
+          <t>Belief_and_identity-Religious_buildings</t>
         </is>
       </c>
       <c r="B25">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Medium houses</t>
+          <t>Buildings-Civic</t>
         </is>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Small houses</t>
+          <t>Buildings-Houses-Large_houses</t>
         </is>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>371</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/Buildings/Other</t>
+          <t>Buildings-Houses-Medium_houses</t>
         </is>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/Buildings/Palace</t>
+          <t>Buildings-Houses-Small_houses</t>
         </is>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/Buildings/Penal</t>
+          <t>Buildings-Other</t>
         </is>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -938,14 +938,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/Buildings/School</t>
+          <t>Buildings-Palace</t>
         </is>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -957,11 +957,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/Buildings/Shops</t>
+          <t>Buildings-Penal</t>
         </is>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -970,20 +970,20 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/Communications/Other</t>
+          <t>Buildings-School</t>
         </is>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -995,14 +995,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/Communications/Post</t>
+          <t>Buildings-Shops</t>
         </is>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1014,14 +1014,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/Communications/Radio</t>
+          <t>Communications</t>
         </is>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1033,33 +1033,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/Food and drink</t>
+          <t>Communications-Other</t>
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Clocks and watches</t>
+          <t>Communications-Post</t>
         </is>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1071,14 +1071,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Industrial life</t>
+          <t>Communications-Radio</t>
         </is>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1090,14 +1090,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Metals</t>
+          <t>Food_and_drink</t>
         </is>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1109,33 +1109,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mining and quarrying</t>
+          <t>Industry_and_manufacture-Clocks_and_watches</t>
         </is>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mixed</t>
+          <t>Industry_and_manufacture-Industrial_life</t>
         </is>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1147,17 +1147,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Other</t>
+          <t>Industry_and_manufacture-Metals</t>
         </is>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1166,30 +1166,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Potteries</t>
+          <t>Industry_and_manufacture-Mining_and_quarrying</t>
         </is>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Print</t>
+          <t>Industry_and_manufacture-Mixed</t>
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1204,17 +1204,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Steam and engines</t>
+          <t>Industry_and_manufacture-Other</t>
         </is>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1223,33 +1223,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Textiles</t>
+          <t>Industry_and_manufacture-Potteries</t>
         </is>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Cricket</t>
+          <t>Industry_and_manufacture-Print</t>
         </is>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1261,14 +1261,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Fairgrounds and amusements</t>
+          <t>Industry_and_manufacture-Steam_and_engines</t>
         </is>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1280,17 +1280,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Film Cinema and TV</t>
+          <t>Industry_and_manufacture-Textiles</t>
         </is>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1299,14 +1299,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Other</t>
+          <t>Leisure_and_sport-Cricket</t>
         </is>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1318,14 +1318,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Rugby and football</t>
+          <t>Leisure_and_sport-Fairgrounds_and_amusements</t>
         </is>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1337,17 +1337,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Toys and models</t>
+          <t>Leisure_and_sport-Film_Cinema_and_TV</t>
         </is>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1356,33 +1356,33 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/Local Histories</t>
+          <t>Leisure_and_sport-Other</t>
         </is>
       </c>
       <c r="B53">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>516</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>/Medicine and health/Hospital</t>
+          <t>Leisure_and_sport-Rugby_and_football</t>
         </is>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1394,17 +1394,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>/Medicine and health/Other</t>
+          <t>Leisure_and_sport-Toys_and_models</t>
         </is>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1413,74 +1413,74 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>/Medicine and health/Professional association</t>
+          <t>Local_Histories</t>
         </is>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>/Mixed/Bygones</t>
+          <t>Medicine_and_health-Hospital</t>
         </is>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/Mixed/Encyclopaedic</t>
+          <t>Medicine_and_health-Other</t>
         </is>
       </c>
       <c r="B58">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>/Mixed/Other</t>
+          <t>Medicine_and_health-Professional_association</t>
         </is>
       </c>
       <c r="B59">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1489,36 +1489,36 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>/Natural world/Dinosaurs</t>
+          <t>Mixed-Bygones</t>
         </is>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/Natural world/Fossils</t>
+          <t>Mixed-Encyclopaedic</t>
         </is>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1527,36 +1527,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/Natural world/Geology</t>
+          <t>Mixed-Other</t>
         </is>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/Natural world/Herbaria and gardening</t>
+          <t>Natural_world</t>
         </is>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1565,33 +1565,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>/Natural world/Mixed</t>
+          <t>Natural_world-Dinosaurs</t>
         </is>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>/Natural world/Other</t>
+          <t>Natural_world-Fossils</t>
         </is>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1603,14 +1603,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>/Natural world/Zoology</t>
+          <t>Natural_world-Geology</t>
         </is>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -1622,52 +1622,52 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>/Other</t>
+          <t>Natural_world-Herbaria_and_gardening</t>
         </is>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>/Personality/Art</t>
+          <t>Natural_world-Mixed</t>
         </is>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>/Personality/Explorer</t>
+          <t>Natural_world-Other</t>
         </is>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1679,109 +1679,109 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>/Personality/Literary</t>
+          <t>Natural_world-Zoology</t>
         </is>
       </c>
       <c r="B70">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/Personality/Music</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C71">
+        <v>61</v>
+      </c>
+      <c r="D71">
         <v>5</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
       <c r="E71">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/Personality/Other</t>
+          <t>Personality-Art</t>
         </is>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>/Personality/Political</t>
+          <t>Personality-Explorer</t>
         </is>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/Personality/Religious</t>
+          <t>Personality-Literary</t>
         </is>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>/Personality/Scientific</t>
+          <t>Personality-Music</t>
         </is>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1793,33 +1793,33 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/Rural Industry/Farming</t>
+          <t>Personality-Other</t>
         </is>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/Rural Industry/Forges</t>
+          <t>Personality-Political</t>
         </is>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1831,90 +1831,90 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/Rural Industry/Other</t>
+          <t>Personality-Religious</t>
         </is>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>/Rural Industry/Rural life</t>
+          <t>Personality-Scientific</t>
         </is>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/Rural Industry/Textiles</t>
+          <t>Rural_Industry-Farming</t>
         </is>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/Rural Industry/Watermills</t>
+          <t>Rural_Industry-Forges</t>
         </is>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/Rural Industry/Windmills</t>
+          <t>Rural_Industry-Other</t>
         </is>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1926,52 +1926,52 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/Science and technology/Computing and gaming</t>
+          <t>Rural_Industry-Rural_life</t>
         </is>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>/Science and technology/Other</t>
+          <t>Rural_Industry-Textiles</t>
         </is>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Boats and ships</t>
+          <t>Rural_Industry-Watermills</t>
         </is>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1983,30 +1983,30 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Fishing</t>
+          <t>Rural_Industry-Windmills</t>
         </is>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Lighthouses</t>
+          <t>Science_and_technology-Computing_and_gaming</t>
         </is>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -2015,39 +2015,39 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Mixed</t>
+          <t>Science_and_technology-Other</t>
         </is>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Other</t>
+          <t>Sea_and_seafaring-Boats_and_ships</t>
         </is>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2059,71 +2059,71 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/Services/Fire</t>
+          <t>Sea_and_seafaring-Fishing</t>
         </is>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>/Services/Other</t>
+          <t>Sea_and_seafaring-Lighthouses</t>
         </is>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/Services/Police</t>
+          <t>Sea_and_seafaring-Mixed</t>
         </is>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/Services/RNLI</t>
+          <t>Sea_and_seafaring-Other</t>
         </is>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2135,33 +2135,33 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>/Transport/Aviation</t>
+          <t>Services-Fire</t>
         </is>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>/Transport/Bicycles</t>
+          <t>Services-Other</t>
         </is>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2173,11 +2173,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/Transport/Buses and trams</t>
+          <t>Services-Police</t>
         </is>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C96">
         <v>16</v>
@@ -2186,20 +2186,20 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/Transport/Canals</t>
+          <t>Services-RNLI</t>
         </is>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2211,14 +2211,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/Transport/Cars and motorbikes</t>
+          <t>Transport-Aviation</t>
         </is>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>/Transport/Mixed</t>
+          <t>Transport-Bicycles</t>
         </is>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2249,14 +2249,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>/Transport/Other</t>
+          <t>Transport-Buses_and_trams</t>
         </is>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2268,166 +2268,166 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/Transport/Trains and railways</t>
+          <t>Transport-Canals</t>
         </is>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>/Utilities/Gas and electricity</t>
+          <t>Transport-Cars_and_motorbikes</t>
         </is>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>/Utilities/Water and waste</t>
+          <t>Transport-Mixed</t>
         </is>
       </c>
       <c r="B103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>/War and conflict/Airforce</t>
+          <t>Transport-Other</t>
         </is>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>/War and conflict/Bunker</t>
+          <t>Transport-Trains_and_railways</t>
         </is>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>/War and conflict/Castles and forts</t>
+          <t>Utilities-Gas_and_electricity</t>
         </is>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>/War and conflict/Event or site</t>
+          <t>Utilities-Water_and_waste</t>
         </is>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>/War and conflict/Military</t>
+          <t>War_and_conflict-Airforce</t>
         </is>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>/War and conflict/Navy</t>
+          <t>War_and_conflict-Bunker</t>
         </is>
       </c>
       <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
         <v>8</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2439,38 +2439,114 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>/War and conflict/Other</t>
+          <t>War_and_conflict-Castles_and_forts</t>
         </is>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>/War and conflict/Regiment</t>
+          <t>War_and_conflict-Event_or_site</t>
         </is>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Military</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>38</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Navy</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Other</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Regiment</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>123</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>0</v>
       </c>
     </row>
